--- a/relatorios/repasses_liberados/dentistas/05512180452/2023-08-25_relatorio_repasses_05512180452.xlsx
+++ b/relatorios/repasses_liberados/dentistas/05512180452/2023-08-25_relatorio_repasses_05512180452.xlsx
@@ -852,10 +852,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2216,10 +2216,10 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2260,10 +2260,10 @@
         <v>1</v>
       </c>
       <c r="M38">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">

--- a/relatorios/repasses_liberados/dentistas/05512180452/2023-08-25_relatorio_repasses_05512180452.xlsx
+++ b/relatorios/repasses_liberados/dentistas/05512180452/2023-08-25_relatorio_repasses_05512180452.xlsx
@@ -764,10 +764,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N4">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -808,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N5">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -852,10 +852,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -984,10 +984,10 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N9">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1292,10 +1292,10 @@
         <v>0.888889</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>21.333336</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1424,10 +1424,10 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N19">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1952,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N31">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2128,10 +2128,10 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N35">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2172,10 +2172,10 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N36">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2216,10 +2216,10 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2260,10 +2260,10 @@
         <v>1</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2348,10 +2348,10 @@
         <v>1</v>
       </c>
       <c r="M40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N40">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2612,10 +2612,10 @@
         <v>1</v>
       </c>
       <c r="M46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N46">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2744,10 +2744,10 @@
         <v>1</v>
       </c>
       <c r="M49">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14">
